--- a/LevenshteinDataFull.xlsx
+++ b/LevenshteinDataFull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roland Leferink\PycharmProjects\scriptie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35B796E-4EBF-433B-9593-AD20A4A1BB4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AF587C-915A-4E4A-988E-83E8DA7EDF3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controversieel Leeftijd" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="410">
   <si>
     <t>Wat is uw leeftijd?</t>
   </si>
@@ -1257,6 +1257,9 @@
   </si>
   <si>
     <t>wur.nl rijksoverheid.nl hier.nu delftce.nl climategate.nl klimaat.be energievergelijk.nl knaw.nl urgenda.nl</t>
+  </si>
+  <si>
+    <t>wur.nl rijksoverheid.nl hier.nu ce.nl climategate.nl klimaat.be energievergelijk.nl knaw.nl urgenda.nl</t>
   </si>
 </sst>
 </file>
@@ -1597,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,7 +2643,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73F386B-F863-4EB8-B096-2DCB269A3E0E}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3681,8 +3686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54939F66-A550-479A-A4A6-97E8EEC54F50}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4283,7 +4288,7 @@
         <v>133</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>134</v>
@@ -4724,7 +4729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED0FF6A-D19C-4604-905C-F01D2ED621AC}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D46" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
